--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.3832095</v>
+        <v>15.8741185</v>
       </c>
       <c r="H2">
-        <v>52.766419</v>
+        <v>31.748237</v>
       </c>
       <c r="I2">
-        <v>0.07374322981215733</v>
+        <v>0.04907379643034446</v>
       </c>
       <c r="J2">
-        <v>0.05571773952237316</v>
+        <v>0.03704708773859725</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.485465</v>
+        <v>1.9947345</v>
       </c>
       <c r="N2">
-        <v>8.970929999999999</v>
+        <v>3.989469</v>
       </c>
       <c r="O2">
-        <v>0.2898195711827911</v>
+        <v>0.2722085685377534</v>
       </c>
       <c r="P2">
-        <v>0.2580417701291554</v>
+        <v>0.2382108450158763</v>
       </c>
       <c r="Q2">
-        <v>118.3409627999175</v>
+        <v>31.66465182903825</v>
       </c>
       <c r="R2">
-        <v>473.36385119967</v>
+        <v>126.658607316153</v>
       </c>
       <c r="S2">
-        <v>0.02137223124179346</v>
+        <v>0.01335830787901718</v>
       </c>
       <c r="T2">
-        <v>0.01437750413394837</v>
+        <v>0.008825018075588558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.3832095</v>
+        <v>15.8741185</v>
       </c>
       <c r="H3">
-        <v>52.766419</v>
+        <v>31.748237</v>
       </c>
       <c r="I3">
-        <v>0.07374322981215733</v>
+        <v>0.04907379643034446</v>
       </c>
       <c r="J3">
-        <v>0.05571773952237316</v>
+        <v>0.03704708773859725</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.20957</v>
       </c>
       <c r="O3">
-        <v>0.133739750849282</v>
+        <v>0.2824600067385706</v>
       </c>
       <c r="P3">
-        <v>0.1786134140541615</v>
+        <v>0.3707728815251441</v>
       </c>
       <c r="Q3">
-        <v>54.60946207163834</v>
+        <v>32.85715000468167</v>
       </c>
       <c r="R3">
-        <v>327.65677242983</v>
+        <v>197.14290002809</v>
       </c>
       <c r="S3">
-        <v>0.009862401181899268</v>
+        <v>0.01386138487040234</v>
       </c>
       <c r="T3">
-        <v>0.009951935679471557</v>
+        <v>0.01373605547295454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.3832095</v>
+        <v>15.8741185</v>
       </c>
       <c r="H4">
-        <v>52.766419</v>
+        <v>31.748237</v>
       </c>
       <c r="I4">
-        <v>0.07374322981215733</v>
+        <v>0.04907379643034446</v>
       </c>
       <c r="J4">
-        <v>0.05571773952237316</v>
+        <v>0.03704708773859725</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.1793665</v>
+        <v>0.021854</v>
       </c>
       <c r="N4">
-        <v>14.358733</v>
+        <v>0.065562</v>
       </c>
       <c r="O4">
-        <v>0.4638807616142576</v>
+        <v>0.002982274611896502</v>
       </c>
       <c r="P4">
-        <v>0.4130177005206726</v>
+        <v>0.003914701285040911</v>
       </c>
       <c r="Q4">
-        <v>189.4147304467817</v>
+        <v>0.346912985699</v>
       </c>
       <c r="R4">
-        <v>757.6589217871269</v>
+        <v>2.081477914194</v>
       </c>
       <c r="S4">
-        <v>0.03420806560915877</v>
+        <v>0.0001463515372035935</v>
       </c>
       <c r="T4">
-        <v>0.02301241265574036</v>
+        <v>0.00014502828197731</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.3832095</v>
+        <v>15.8741185</v>
       </c>
       <c r="H5">
-        <v>52.766419</v>
+        <v>31.748237</v>
       </c>
       <c r="I5">
-        <v>0.07374322981215733</v>
+        <v>0.04907379643034446</v>
       </c>
       <c r="J5">
-        <v>0.05571773952237316</v>
+        <v>0.03704708773859725</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.742061666666667</v>
+        <v>3.2415185</v>
       </c>
       <c r="N5">
-        <v>5.226185000000001</v>
+        <v>6.483036999999999</v>
       </c>
       <c r="O5">
-        <v>0.1125599163536694</v>
+        <v>0.4423491501117796</v>
       </c>
       <c r="P5">
-        <v>0.1503271152960106</v>
+        <v>0.3871015721739388</v>
       </c>
       <c r="Q5">
-        <v>45.96117791358584</v>
+        <v>51.45624878894225</v>
       </c>
       <c r="R5">
-        <v>275.767067481515</v>
+        <v>205.824995155769</v>
       </c>
       <c r="S5">
-        <v>0.008300531779305852</v>
+        <v>0.02170775214372135</v>
       </c>
       <c r="T5">
-        <v>0.008375887053212875</v>
+        <v>0.01434098590807685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,13 +794,13 @@
         <v>209.811259</v>
       </c>
       <c r="H6">
-        <v>629.433777</v>
+        <v>629.4337770000001</v>
       </c>
       <c r="I6">
-        <v>0.5864396403180235</v>
+        <v>0.6486177492602364</v>
       </c>
       <c r="J6">
-        <v>0.6646391378855843</v>
+        <v>0.7344876618552286</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.485465</v>
+        <v>1.9947345</v>
       </c>
       <c r="N6">
-        <v>8.970929999999999</v>
+        <v>3.989469</v>
       </c>
       <c r="O6">
-        <v>0.2898195711827911</v>
+        <v>0.2722085685377534</v>
       </c>
       <c r="P6">
-        <v>0.2580417701291554</v>
+        <v>0.2382108450158763</v>
       </c>
       <c r="Q6">
-        <v>941.1010588504348</v>
+        <v>418.5177568157355</v>
       </c>
       <c r="R6">
-        <v>5646.606353102609</v>
+        <v>2511.106540894413</v>
       </c>
       <c r="S6">
-        <v>0.1699616850815598</v>
+        <v>0.1765593090543084</v>
       </c>
       <c r="T6">
-        <v>0.1715046596371119</v>
+        <v>0.1749629265842692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,13 +856,13 @@
         <v>209.811259</v>
       </c>
       <c r="H7">
-        <v>629.433777</v>
+        <v>629.4337770000001</v>
       </c>
       <c r="I7">
-        <v>0.5864396403180235</v>
+        <v>0.6486177492602364</v>
       </c>
       <c r="J7">
-        <v>0.6646391378855843</v>
+        <v>0.7344876618552286</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,22 +877,22 @@
         <v>6.20957</v>
       </c>
       <c r="O7">
-        <v>0.133739750849282</v>
+        <v>0.2824600067385706</v>
       </c>
       <c r="P7">
-        <v>0.1786134140541615</v>
+        <v>0.3707728815251441</v>
       </c>
       <c r="Q7">
-        <v>434.2792331828767</v>
+        <v>434.2792331828768</v>
       </c>
       <c r="R7">
-        <v>3908.51309864589</v>
+        <v>3908.513098645891</v>
       </c>
       <c r="S7">
-        <v>0.07843029138427503</v>
+        <v>0.1832085738268029</v>
       </c>
       <c r="T7">
-        <v>0.1187134655317588</v>
+        <v>0.2723281068307288</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,43 +918,43 @@
         <v>209.811259</v>
       </c>
       <c r="H8">
-        <v>629.433777</v>
+        <v>629.4337770000001</v>
       </c>
       <c r="I8">
-        <v>0.5864396403180235</v>
+        <v>0.6486177492602364</v>
       </c>
       <c r="J8">
-        <v>0.6646391378855843</v>
+        <v>0.7344876618552286</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>7.1793665</v>
+        <v>0.021854</v>
       </c>
       <c r="N8">
-        <v>14.358733</v>
+        <v>0.065562</v>
       </c>
       <c r="O8">
-        <v>0.4638807616142576</v>
+        <v>0.002982274611896502</v>
       </c>
       <c r="P8">
-        <v>0.4130177005206726</v>
+        <v>0.003914701285040911</v>
       </c>
       <c r="Q8">
-        <v>1506.311924187423</v>
+        <v>4.585215254186</v>
       </c>
       <c r="R8">
-        <v>9037.871545124541</v>
+        <v>41.266937287674</v>
       </c>
       <c r="S8">
-        <v>0.272038066991516</v>
+        <v>0.001934356246444254</v>
       </c>
       <c r="T8">
-        <v>0.2745077284055463</v>
+        <v>0.002875299793711358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,43 +980,43 @@
         <v>209.811259</v>
       </c>
       <c r="H9">
-        <v>629.433777</v>
+        <v>629.4337770000001</v>
       </c>
       <c r="I9">
-        <v>0.5864396403180235</v>
+        <v>0.6486177492602364</v>
       </c>
       <c r="J9">
-        <v>0.6646391378855843</v>
+        <v>0.7344876618552286</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.742061666666667</v>
+        <v>3.2415185</v>
       </c>
       <c r="N9">
-        <v>5.226185000000001</v>
+        <v>6.483036999999999</v>
       </c>
       <c r="O9">
-        <v>0.1125599163536694</v>
+        <v>0.4423491501117796</v>
       </c>
       <c r="P9">
-        <v>0.1503271152960106</v>
+        <v>0.3871015721739388</v>
       </c>
       <c r="Q9">
-        <v>365.5041515389717</v>
+        <v>680.1070775567915</v>
       </c>
       <c r="R9">
-        <v>3289.537363850745</v>
+        <v>4080.642465340749</v>
       </c>
       <c r="S9">
-        <v>0.06600959686067272</v>
+        <v>0.2869155101326809</v>
       </c>
       <c r="T9">
-        <v>0.09991328431116731</v>
+        <v>0.2843213286465193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.231693666666666</v>
+        <v>0.056216</v>
       </c>
       <c r="H10">
-        <v>3.695081</v>
+        <v>0.168648</v>
       </c>
       <c r="I10">
-        <v>0.003442684602841012</v>
+        <v>0.0001737880777523643</v>
       </c>
       <c r="J10">
-        <v>0.003901753512438851</v>
+        <v>0.000196795722954284</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.485465</v>
+        <v>1.9947345</v>
       </c>
       <c r="N10">
-        <v>8.970929999999999</v>
+        <v>3.989469</v>
       </c>
       <c r="O10">
-        <v>0.2898195711827911</v>
+        <v>0.2722085685377534</v>
       </c>
       <c r="P10">
-        <v>0.2580417701291554</v>
+        <v>0.2382108450158763</v>
       </c>
       <c r="Q10">
-        <v>5.524718832554998</v>
+        <v>0.112135994652</v>
       </c>
       <c r="R10">
-        <v>33.14831299533</v>
+        <v>0.6728159679119999</v>
       </c>
       <c r="S10">
-        <v>0.0009977573753129794</v>
+        <v>4.730660387389887E-05</v>
       </c>
       <c r="T10">
-        <v>0.001006815382957371</v>
+        <v>4.687887546045027E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.231693666666666</v>
+        <v>0.056216</v>
       </c>
       <c r="H11">
-        <v>3.695081</v>
+        <v>0.168648</v>
       </c>
       <c r="I11">
-        <v>0.003442684602841012</v>
+        <v>0.0001737880777523643</v>
       </c>
       <c r="J11">
-        <v>0.003901753512438851</v>
+        <v>0.000196795722954284</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>6.20957</v>
       </c>
       <c r="O11">
-        <v>0.133739750849282</v>
+        <v>0.2824600067385706</v>
       </c>
       <c r="P11">
-        <v>0.1786134140541615</v>
+        <v>0.3707728815251441</v>
       </c>
       <c r="Q11">
-        <v>2.549429347241111</v>
+        <v>0.1163590623733333</v>
       </c>
       <c r="R11">
-        <v>22.94486412517</v>
+        <v>1.04723156136</v>
       </c>
       <c r="S11">
-        <v>0.0004604237810366163</v>
+        <v>4.908818161301604E-05</v>
       </c>
       <c r="T11">
-        <v>0.0006969055156545196</v>
+        <v>7.296651727158382E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.231693666666666</v>
+        <v>0.056216</v>
       </c>
       <c r="H12">
-        <v>3.695081</v>
+        <v>0.168648</v>
       </c>
       <c r="I12">
-        <v>0.003442684602841012</v>
+        <v>0.0001737880777523643</v>
       </c>
       <c r="J12">
-        <v>0.003901753512438851</v>
+        <v>0.000196795722954284</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>7.1793665</v>
+        <v>0.021854</v>
       </c>
       <c r="N12">
-        <v>14.358733</v>
+        <v>0.065562</v>
       </c>
       <c r="O12">
-        <v>0.4638807616142576</v>
+        <v>0.002982274611896502</v>
       </c>
       <c r="P12">
-        <v>0.4130177005206726</v>
+        <v>0.003914701285040911</v>
       </c>
       <c r="Q12">
-        <v>8.842780248728831</v>
+        <v>0.001228544464</v>
       </c>
       <c r="R12">
-        <v>53.05668149237299</v>
+        <v>0.011056900176</v>
       </c>
       <c r="S12">
-        <v>0.001596995155563566</v>
+        <v>5.182837721311713E-07</v>
       </c>
       <c r="T12">
-        <v>0.001611493263705952</v>
+        <v>7.703964695396907E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.231693666666666</v>
+        <v>0.056216</v>
       </c>
       <c r="H13">
-        <v>3.695081</v>
+        <v>0.168648</v>
       </c>
       <c r="I13">
-        <v>0.003442684602841012</v>
+        <v>0.0001737880777523643</v>
       </c>
       <c r="J13">
-        <v>0.003901753512438851</v>
+        <v>0.000196795722954284</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.742061666666667</v>
+        <v>3.2415185</v>
       </c>
       <c r="N13">
-        <v>5.226185000000001</v>
+        <v>6.483036999999999</v>
       </c>
       <c r="O13">
-        <v>0.1125599163536694</v>
+        <v>0.4423491501117796</v>
       </c>
       <c r="P13">
-        <v>0.1503271152960106</v>
+        <v>0.3871015721739388</v>
       </c>
       <c r="Q13">
-        <v>2.145686321776111</v>
+        <v>0.182225203996</v>
       </c>
       <c r="R13">
-        <v>19.311176895985</v>
+        <v>1.093351223976</v>
       </c>
       <c r="S13">
-        <v>0.00038750829092785</v>
+        <v>7.68750084933182E-05</v>
       </c>
       <c r="T13">
-        <v>0.0005865393501210094</v>
+        <v>7.617993375271023E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>99.89975749999999</v>
+        <v>97.57933800000001</v>
       </c>
       <c r="H14">
-        <v>199.799515</v>
+        <v>195.158676</v>
       </c>
       <c r="I14">
-        <v>0.2792279982274821</v>
+        <v>0.3016601248642422</v>
       </c>
       <c r="J14">
-        <v>0.2109746604837158</v>
+        <v>0.2277310892167169</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.485465</v>
+        <v>1.9947345</v>
       </c>
       <c r="N14">
-        <v>8.970929999999999</v>
+        <v>3.989469</v>
       </c>
       <c r="O14">
-        <v>0.2898195711827911</v>
+        <v>0.2722085685377534</v>
       </c>
       <c r="P14">
-        <v>0.2580417701291554</v>
+        <v>0.2382108450158763</v>
       </c>
       <c r="Q14">
-        <v>448.0968657747374</v>
+        <v>194.644871995761</v>
       </c>
       <c r="R14">
-        <v>1792.38746309895</v>
+        <v>778.579487983044</v>
       </c>
       <c r="S14">
-        <v>0.08092573870851801</v>
+        <v>0.0821144707742153</v>
       </c>
       <c r="T14">
-        <v>0.05444027484361558</v>
+        <v>0.05424801519870005</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>99.89975749999999</v>
+        <v>97.57933800000001</v>
       </c>
       <c r="H15">
-        <v>199.799515</v>
+        <v>195.158676</v>
       </c>
       <c r="I15">
-        <v>0.2792279982274821</v>
+        <v>0.3016601248642422</v>
       </c>
       <c r="J15">
-        <v>0.2109746604837158</v>
+        <v>0.2277310892167169</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>6.20957</v>
       </c>
       <c r="O15">
-        <v>0.133739750849282</v>
+        <v>0.2824600067385706</v>
       </c>
       <c r="P15">
-        <v>0.1786134140541615</v>
+        <v>0.3707728815251441</v>
       </c>
       <c r="Q15">
-        <v>206.7781790597583</v>
+        <v>201.97524328822</v>
       </c>
       <c r="R15">
-        <v>1240.66907435855</v>
+        <v>1211.85145972932</v>
       </c>
       <c r="S15">
-        <v>0.03734388291308721</v>
+        <v>0.08520692090191188</v>
       </c>
       <c r="T15">
-        <v>0.03768290438791408</v>
+        <v>0.08443651216174181</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>99.89975749999999</v>
+        <v>97.57933800000001</v>
       </c>
       <c r="H16">
-        <v>199.799515</v>
+        <v>195.158676</v>
       </c>
       <c r="I16">
-        <v>0.2792279982274821</v>
+        <v>0.3016601248642422</v>
       </c>
       <c r="J16">
-        <v>0.2109746604837158</v>
+        <v>0.2277310892167169</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>7.1793665</v>
+        <v>0.021854</v>
       </c>
       <c r="N16">
-        <v>14.358733</v>
+        <v>0.065562</v>
       </c>
       <c r="O16">
-        <v>0.4638807616142576</v>
+        <v>0.002982274611896502</v>
       </c>
       <c r="P16">
-        <v>0.4130177005206726</v>
+        <v>0.003914701285040911</v>
       </c>
       <c r="Q16">
-        <v>717.2169723536236</v>
+        <v>2.132498852652</v>
       </c>
       <c r="R16">
-        <v>2868.867889414495</v>
+        <v>12.794993115912</v>
       </c>
       <c r="S16">
-        <v>0.1295284964817889</v>
+        <v>0.0008996333318041581</v>
       </c>
       <c r="T16">
-        <v>0.0871362691411139</v>
+        <v>0.0008914991876004483</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>99.89975749999999</v>
+        <v>97.57933800000001</v>
       </c>
       <c r="H17">
-        <v>199.799515</v>
+        <v>195.158676</v>
       </c>
       <c r="I17">
-        <v>0.2792279982274821</v>
+        <v>0.3016601248642422</v>
       </c>
       <c r="J17">
-        <v>0.2109746604837158</v>
+        <v>0.2277310892167169</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.742061666666667</v>
+        <v>3.2415185</v>
       </c>
       <c r="N17">
-        <v>5.226185000000001</v>
+        <v>6.483036999999999</v>
       </c>
       <c r="O17">
-        <v>0.1125599163536694</v>
+        <v>0.4423491501117796</v>
       </c>
       <c r="P17">
-        <v>0.1503271152960106</v>
+        <v>0.3871015721739388</v>
       </c>
       <c r="Q17">
-        <v>174.0315380500459</v>
+        <v>316.305229344753</v>
       </c>
       <c r="R17">
-        <v>1044.189228300275</v>
+        <v>1265.220917379012</v>
       </c>
       <c r="S17">
-        <v>0.03142988012408794</v>
+        <v>0.1334390998563108</v>
       </c>
       <c r="T17">
-        <v>0.03171521211107223</v>
+        <v>0.08815506266867465</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>19.19376233333333</v>
+        <v>0.09467366666666666</v>
       </c>
       <c r="H18">
-        <v>57.581287</v>
+        <v>0.284021</v>
       </c>
       <c r="I18">
-        <v>0.05364813658121955</v>
+        <v>0.0002926774324706149</v>
       </c>
       <c r="J18">
-        <v>0.0608019117315695</v>
+        <v>0.0003314247309733806</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.485465</v>
+        <v>1.9947345</v>
       </c>
       <c r="N18">
-        <v>8.970929999999999</v>
+        <v>3.989469</v>
       </c>
       <c r="O18">
-        <v>0.2898195711827911</v>
+        <v>0.2722085685377534</v>
       </c>
       <c r="P18">
-        <v>0.2580417701291554</v>
+        <v>0.2382108450158763</v>
       </c>
       <c r="Q18">
-        <v>86.09294916448499</v>
+        <v>0.1888488291415</v>
       </c>
       <c r="R18">
-        <v>516.55769498691</v>
+        <v>1.133092974849</v>
       </c>
       <c r="S18">
-        <v>0.01554827993872486</v>
+        <v>7.966930493613105E-05</v>
       </c>
       <c r="T18">
-        <v>0.01568943293045085</v>
+        <v>7.894896522432846E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>19.19376233333333</v>
+        <v>0.09467366666666666</v>
       </c>
       <c r="H19">
-        <v>57.581287</v>
+        <v>0.284021</v>
       </c>
       <c r="I19">
-        <v>0.05364813658121955</v>
+        <v>0.0002926774324706149</v>
       </c>
       <c r="J19">
-        <v>0.0608019117315695</v>
+        <v>0.0003314247309733806</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>6.20957</v>
       </c>
       <c r="O19">
-        <v>0.133739750849282</v>
+        <v>0.2824600067385706</v>
       </c>
       <c r="P19">
-        <v>0.1786134140541615</v>
+        <v>0.3707728815251441</v>
       </c>
       <c r="Q19">
-        <v>39.72833692406556</v>
+        <v>0.1959609201077778</v>
       </c>
       <c r="R19">
-        <v>357.55503231659</v>
+        <v>1.76364828097</v>
       </c>
       <c r="S19">
-        <v>0.007174888419900555</v>
+        <v>8.26696695478774E-05</v>
       </c>
       <c r="T19">
-        <v>0.0108600370353954</v>
+        <v>0.000122883302511696</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>19.19376233333333</v>
+        <v>0.09467366666666666</v>
       </c>
       <c r="H20">
-        <v>57.581287</v>
+        <v>0.284021</v>
       </c>
       <c r="I20">
-        <v>0.05364813658121955</v>
+        <v>0.0002926774324706149</v>
       </c>
       <c r="J20">
-        <v>0.0608019117315695</v>
+        <v>0.0003314247309733806</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>7.1793665</v>
+        <v>0.021854</v>
       </c>
       <c r="N20">
-        <v>14.358733</v>
+        <v>0.065562</v>
       </c>
       <c r="O20">
-        <v>0.4638807616142576</v>
+        <v>0.002982274611896502</v>
       </c>
       <c r="P20">
-        <v>0.4130177005206726</v>
+        <v>0.003914701285040911</v>
       </c>
       <c r="Q20">
-        <v>137.7990543048952</v>
+        <v>0.002068998311333333</v>
       </c>
       <c r="R20">
-        <v>826.7943258293709</v>
+        <v>0.018620984802</v>
       </c>
       <c r="S20">
-        <v>0.02488633845648184</v>
+        <v>8.728444763321675E-07</v>
       </c>
       <c r="T20">
-        <v>0.02511226577063374</v>
+        <v>1.297428820235831E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,55 +1712,55 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>19.19376233333333</v>
+        <v>0.09467366666666666</v>
       </c>
       <c r="H21">
-        <v>57.581287</v>
+        <v>0.284021</v>
       </c>
       <c r="I21">
-        <v>0.05364813658121955</v>
+        <v>0.0002926774324706149</v>
       </c>
       <c r="J21">
-        <v>0.0608019117315695</v>
+        <v>0.0003314247309733806</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.742061666666667</v>
+        <v>3.2415185</v>
       </c>
       <c r="N21">
-        <v>5.226185000000001</v>
+        <v>6.483036999999999</v>
       </c>
       <c r="O21">
-        <v>0.1125599163536694</v>
+        <v>0.4423491501117796</v>
       </c>
       <c r="P21">
-        <v>0.1503271152960106</v>
+        <v>0.3871015721739388</v>
       </c>
       <c r="Q21">
-        <v>33.43671760001056</v>
+        <v>0.3068864419628333</v>
       </c>
       <c r="R21">
-        <v>300.9304584000951</v>
+        <v>1.841318651777</v>
       </c>
       <c r="S21">
-        <v>0.006038629766112306</v>
+        <v>0.0001294656135102742</v>
       </c>
       <c r="T21">
-        <v>0.009140175995089508</v>
+        <v>0.0001282950344171203</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.251595</v>
+        <v>0.05882833333333334</v>
       </c>
       <c r="H22">
-        <v>3.754785</v>
+        <v>0.176485</v>
       </c>
       <c r="I22">
-        <v>0.003498310458276392</v>
+        <v>0.0001818639349540227</v>
       </c>
       <c r="J22">
-        <v>0.003964796864318458</v>
+        <v>0.0002059407355295456</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.485465</v>
+        <v>1.9947345</v>
       </c>
       <c r="N22">
-        <v>8.970929999999999</v>
+        <v>3.989469</v>
       </c>
       <c r="O22">
-        <v>0.2898195711827911</v>
+        <v>0.2722085685377534</v>
       </c>
       <c r="P22">
-        <v>0.2580417701291554</v>
+        <v>0.2382108450158763</v>
       </c>
       <c r="Q22">
-        <v>5.613985566675</v>
+        <v>0.1173469060775</v>
       </c>
       <c r="R22">
-        <v>33.68391340005</v>
+        <v>0.704081436465</v>
       </c>
       <c r="S22">
-        <v>0.001013878836881937</v>
+        <v>4.95049214024776E-05</v>
       </c>
       <c r="T22">
-        <v>0.00102308320107126</v>
+        <v>4.905731663368416E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.251595</v>
+        <v>0.05882833333333334</v>
       </c>
       <c r="H23">
-        <v>3.754785</v>
+        <v>0.176485</v>
       </c>
       <c r="I23">
-        <v>0.003498310458276392</v>
+        <v>0.0001818639349540227</v>
       </c>
       <c r="J23">
-        <v>0.003964796864318458</v>
+        <v>0.0002059407355295456</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>6.20957</v>
       </c>
       <c r="O23">
-        <v>0.133739750849282</v>
+        <v>0.2824600067385706</v>
       </c>
       <c r="P23">
-        <v>0.1786134140541615</v>
+        <v>0.3707728815251441</v>
       </c>
       <c r="Q23">
-        <v>2.590622254716667</v>
+        <v>0.1217662179388889</v>
       </c>
       <c r="R23">
-        <v>23.31560029245</v>
+        <v>1.09589596145</v>
       </c>
       <c r="S23">
-        <v>0.0004678631690833223</v>
+        <v>5.13692882926162E-05</v>
       </c>
       <c r="T23">
-        <v>0.0007081659039671541</v>
+        <v>7.635723993569726E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,55 +1898,55 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.251595</v>
+        <v>0.05882833333333334</v>
       </c>
       <c r="H24">
-        <v>3.754785</v>
+        <v>0.176485</v>
       </c>
       <c r="I24">
-        <v>0.003498310458276392</v>
+        <v>0.0001818639349540227</v>
       </c>
       <c r="J24">
-        <v>0.003964796864318458</v>
+        <v>0.0002059407355295456</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>7.1793665</v>
+        <v>0.021854</v>
       </c>
       <c r="N24">
-        <v>14.358733</v>
+        <v>0.065562</v>
       </c>
       <c r="O24">
-        <v>0.4638807616142576</v>
+        <v>0.002982274611896502</v>
       </c>
       <c r="P24">
-        <v>0.4130177005206726</v>
+        <v>0.003914701285040911</v>
       </c>
       <c r="Q24">
-        <v>8.9856592145675</v>
+        <v>0.001285634396666667</v>
       </c>
       <c r="R24">
-        <v>53.913955287405</v>
+        <v>0.01157070957</v>
       </c>
       <c r="S24">
-        <v>0.001622798919748375</v>
+        <v>5.423681960329786E-07</v>
       </c>
       <c r="T24">
-        <v>0.001637531283932383</v>
+        <v>8.061964620197828E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.251595</v>
+        <v>0.05882833333333334</v>
       </c>
       <c r="H25">
-        <v>3.754785</v>
+        <v>0.176485</v>
       </c>
       <c r="I25">
-        <v>0.003498310458276392</v>
+        <v>0.0001818639349540227</v>
       </c>
       <c r="J25">
-        <v>0.003964796864318458</v>
+        <v>0.0002059407355295456</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.742061666666667</v>
+        <v>3.2415185</v>
       </c>
       <c r="N25">
-        <v>5.226185000000001</v>
+        <v>6.483036999999999</v>
       </c>
       <c r="O25">
-        <v>0.1125599163536694</v>
+        <v>0.4423491501117796</v>
       </c>
       <c r="P25">
-        <v>0.1503271152960106</v>
+        <v>0.3871015721739388</v>
       </c>
       <c r="Q25">
-        <v>2.180355671691667</v>
+        <v>0.1906931308241667</v>
       </c>
       <c r="R25">
-        <v>19.623201045225</v>
+        <v>1.144158784945</v>
       </c>
       <c r="S25">
-        <v>0.0003937695325627577</v>
+        <v>8.044735706289589E-05</v>
       </c>
       <c r="T25">
-        <v>0.0005960164753476622</v>
+        <v>7.971998249814446E-05</v>
       </c>
     </row>
   </sheetData>
